--- a/Resources/Level format.xlsx
+++ b/Resources/Level format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +55,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,11 +136,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -136,14 +175,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,223 +500,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA22"/>
+  <dimension ref="B1:DZ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY21" sqref="AY21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+    </row>
+    <row r="2" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-    </row>
-    <row r="2" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="9"/>
-    </row>
-    <row r="3" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10"/>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10"/>
+      <c r="CW2" s="10"/>
+      <c r="CX2" s="10"/>
+      <c r="CY2" s="10"/>
+      <c r="CZ2" s="10"/>
+      <c r="DA2" s="10"/>
+      <c r="DB2" s="10"/>
+      <c r="DC2" s="10"/>
+      <c r="DD2" s="10"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11"/>
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+    </row>
+    <row r="3" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
       <c r="CA3" s="10"/>
-    </row>
-    <row r="4" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="CA4" s="10"/>
-    </row>
-    <row r="5" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="CA5" s="10"/>
-    </row>
-    <row r="6" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="CA6" s="10"/>
-    </row>
-    <row r="7" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="CA7" s="10"/>
-    </row>
-    <row r="8" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="CA8" s="10"/>
-    </row>
-    <row r="9" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="CA9" s="10"/>
-    </row>
-    <row r="10" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="10"/>
+      <c r="CY3" s="10"/>
+      <c r="CZ3" s="10"/>
+      <c r="DA3" s="10"/>
+      <c r="DB3" s="10"/>
+      <c r="DC3" s="10"/>
+      <c r="DD3" s="10"/>
+    </row>
+    <row r="4" spans="2:130" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:BP4" si="0">D4+1</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K4" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L4" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O4" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S4" s="19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T4" s="19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X4" s="19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y4" s="19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z4" s="19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA4" s="19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB4" s="19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC4" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD4" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE4" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF4" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG4" s="19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH4" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AI4" s="19">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AK4" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AL4" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AM4" s="19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AN4" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AO4" s="19">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AP4" s="19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AQ4" s="19">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AR4" s="19">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AS4" s="19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AT4" s="19">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AU4" s="19">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AV4" s="19">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AW4" s="19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AX4" s="19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AY4" s="19">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AZ4" s="19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="BA4" s="19">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="BB4" s="19">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="BC4" s="19">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="BD4" s="19">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="BE4" s="19">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BF4" s="19">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BG4" s="19">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BH4" s="19">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BI4" s="19">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BJ4" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BK4" s="19">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BL4" s="19">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BM4" s="19">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BN4" s="19">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BO4" s="19">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BP4" s="19">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="BQ4" s="19">
+        <f t="shared" ref="BQ4:DD4" si="1">BP4+1</f>
+        <v>67</v>
+      </c>
+      <c r="BR4" s="19">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="BS4" s="19">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="BT4" s="19">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="BU4" s="19">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="BV4" s="19">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="BW4" s="19">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="BX4" s="19">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="BY4" s="19">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="BZ4" s="19">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="CA4" s="19">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="CB4" s="19">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="CC4" s="19">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="CD4" s="19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="CE4" s="19">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="CF4" s="19">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="CG4" s="19">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="CH4" s="19">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="CI4" s="19">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="CJ4" s="19">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="CK4" s="19">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="CL4" s="19">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="CM4" s="19">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="CN4" s="19">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="CO4" s="19">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="CP4" s="19">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="CQ4" s="19">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="CR4" s="19">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="CS4" s="19">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="CT4" s="19">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="CU4" s="19">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="CV4" s="19">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="CW4" s="19">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="CX4" s="19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="CY4" s="19">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="CZ4" s="19">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="DA4" s="19">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="DB4" s="19">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="DC4" s="19">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="DC5" s="8"/>
+    </row>
+    <row r="6" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <f>B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="DC6" s="8"/>
+    </row>
+    <row r="7" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <f t="shared" ref="B7:B24" si="2">B6+1</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="DC7" s="8"/>
+    </row>
+    <row r="8" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="DC8" s="8"/>
+    </row>
+    <row r="9" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="DC9" s="8"/>
+    </row>
+    <row r="10" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="CA10" s="10"/>
-    </row>
-    <row r="11" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="DC10" s="8"/>
+    </row>
+    <row r="11" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
@@ -675,23 +1278,46 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="CA11" s="10"/>
-    </row>
-    <row r="12" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="AA12" s="3"/>
-      <c r="CA12" s="10"/>
-    </row>
-    <row r="13" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="AA13" s="3"/>
-      <c r="CA13" s="10"/>
-    </row>
-    <row r="14" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="E14" s="7"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="DC11" s="8"/>
+    </row>
+    <row r="12" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="AC12" s="3"/>
+      <c r="DC12" s="8"/>
+    </row>
+    <row r="13" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="AC13" s="3"/>
+      <c r="AS13" s="18"/>
+      <c r="AV13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="2"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="2"/>
+      <c r="DC13" s="8"/>
+    </row>
+    <row r="14" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="G14" s="7"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -706,18 +1332,48 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="BV14" s="5"/>
-      <c r="CA14" s="10"/>
-    </row>
-    <row r="15" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="E15" s="7"/>
-      <c r="CA15" s="10"/>
-    </row>
-    <row r="16" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="2"/>
+      <c r="BZ14" s="4"/>
+      <c r="CY14" s="5"/>
+      <c r="DC14" s="8"/>
+    </row>
+    <row r="15" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="DC15" s="8"/>
+      <c r="DE15" s="16"/>
+      <c r="DF15" s="16"/>
+      <c r="DG15" s="16"/>
+      <c r="DH15" s="16"/>
+      <c r="DI15" s="16"/>
+      <c r="DJ15" s="16"/>
+      <c r="DK15" s="16"/>
+      <c r="DL15" s="16"/>
+      <c r="DM15" s="16"/>
+      <c r="DN15" s="16"/>
+      <c r="DO15" s="16"/>
+      <c r="DP15" s="16"/>
+      <c r="DQ15" s="16"/>
+      <c r="DR15" s="16"/>
+      <c r="DS15" s="16"/>
+      <c r="DT15" s="16"/>
+      <c r="DU15" s="16"/>
+      <c r="DV15" s="16"/>
+      <c r="DW15" s="16"/>
+    </row>
+    <row r="16" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -770,53 +1426,141 @@
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="13"/>
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="CA16" s="10"/>
-    </row>
-    <row r="17" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="CA17" s="10"/>
-    </row>
-    <row r="18" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="CA18" s="10"/>
-    </row>
-    <row r="19" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="CA19" s="10"/>
-    </row>
-    <row r="20" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="CA20" s="10"/>
-    </row>
-    <row r="21" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="CA21" s="10"/>
-    </row>
-    <row r="22" spans="1:79" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="CA22" s="10"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="14"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="14"/>
+      <c r="BU16" s="14"/>
+      <c r="BV16" s="14"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="16"/>
+      <c r="BZ16" s="16"/>
+      <c r="CA16" s="16"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="6"/>
+      <c r="CD16" s="6"/>
+      <c r="CE16" s="6"/>
+      <c r="CF16" s="6"/>
+      <c r="CG16" s="6"/>
+      <c r="CH16" s="6"/>
+      <c r="CI16" s="6"/>
+      <c r="CJ16" s="6"/>
+      <c r="CK16" s="6"/>
+      <c r="CL16" s="6"/>
+      <c r="CM16" s="6"/>
+      <c r="CN16" s="6"/>
+      <c r="CO16" s="6"/>
+      <c r="CP16" s="6"/>
+      <c r="CQ16" s="6"/>
+      <c r="CR16" s="6"/>
+      <c r="CS16" s="6"/>
+      <c r="CT16" s="6"/>
+      <c r="CU16" s="6"/>
+      <c r="CV16" s="6"/>
+      <c r="CW16" s="6"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DC16" s="8"/>
+      <c r="DE16" s="16"/>
+      <c r="DF16" s="16"/>
+      <c r="DG16" s="16"/>
+      <c r="DH16" s="16"/>
+      <c r="DI16" s="16"/>
+      <c r="DJ16" s="16"/>
+      <c r="DK16" s="16"/>
+      <c r="DL16" s="16"/>
+      <c r="DM16" s="16"/>
+      <c r="DN16" s="16"/>
+      <c r="DO16" s="16"/>
+      <c r="DP16" s="16"/>
+      <c r="DQ16" s="16"/>
+      <c r="DR16" s="16"/>
+      <c r="DS16" s="16"/>
+      <c r="DT16" s="16"/>
+      <c r="DU16" s="16"/>
+      <c r="DV16" s="16"/>
+      <c r="DW16" s="16"/>
+    </row>
+    <row r="17" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="DC17" s="8"/>
+    </row>
+    <row r="18" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="DC18" s="8"/>
+    </row>
+    <row r="19" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="DC19" s="8"/>
+    </row>
+    <row r="20" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="DC20" s="8"/>
+    </row>
+    <row r="21" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="DC21" s="8"/>
+    </row>
+    <row r="22" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="DC22" s="8"/>
+    </row>
+    <row r="23" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="DC23" s="8"/>
+    </row>
+    <row r="24" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="DC24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:BZ2"/>
+    <mergeCell ref="C2:DD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resources/Level format.xlsx
+++ b/Resources/Level format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LEVEL 1-1</t>
+  </si>
+  <si>
+    <t>LEVEL 1-2</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -177,9 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -194,6 +194,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,706 +504,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DZ24"/>
+  <dimension ref="B1:DZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY21" sqref="AY21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:DD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4" style="20"/>
+    <col min="2" max="2" width="4" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="11"/>
-      <c r="DU1" s="11"/>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
     </row>
     <row r="2" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="10"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="10"/>
-      <c r="BV2" s="10"/>
-      <c r="BW2" s="10"/>
-      <c r="BX2" s="10"/>
-      <c r="BY2" s="10"/>
-      <c r="BZ2" s="10"/>
-      <c r="CA2" s="10"/>
-      <c r="CB2" s="10"/>
-      <c r="CC2" s="10"/>
-      <c r="CD2" s="10"/>
-      <c r="CE2" s="10"/>
-      <c r="CF2" s="10"/>
-      <c r="CG2" s="10"/>
-      <c r="CH2" s="10"/>
-      <c r="CI2" s="10"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
-      <c r="CL2" s="10"/>
-      <c r="CM2" s="10"/>
-      <c r="CN2" s="10"/>
-      <c r="CO2" s="10"/>
-      <c r="CP2" s="10"/>
-      <c r="CQ2" s="10"/>
-      <c r="CR2" s="10"/>
-      <c r="CS2" s="10"/>
-      <c r="CT2" s="10"/>
-      <c r="CU2" s="10"/>
-      <c r="CV2" s="10"/>
-      <c r="CW2" s="10"/>
-      <c r="CX2" s="10"/>
-      <c r="CY2" s="10"/>
-      <c r="CZ2" s="10"/>
-      <c r="DA2" s="10"/>
-      <c r="DB2" s="10"/>
-      <c r="DC2" s="10"/>
-      <c r="DD2" s="10"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11"/>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11"/>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
+      <c r="CU2" s="20"/>
+      <c r="CV2" s="20"/>
+      <c r="CW2" s="20"/>
+      <c r="CX2" s="20"/>
+      <c r="CY2" s="20"/>
+      <c r="CZ2" s="20"/>
+      <c r="DA2" s="20"/>
+      <c r="DB2" s="20"/>
+      <c r="DC2" s="20"/>
+      <c r="DD2" s="20"/>
+      <c r="DE2" s="10"/>
+      <c r="DF2" s="10"/>
+      <c r="DG2" s="10"/>
+      <c r="DH2" s="10"/>
+      <c r="DI2" s="10"/>
+      <c r="DJ2" s="10"/>
+      <c r="DK2" s="10"/>
+      <c r="DL2" s="10"/>
+      <c r="DM2" s="10"/>
+      <c r="DN2" s="10"/>
+      <c r="DO2" s="10"/>
+      <c r="DP2" s="10"/>
+      <c r="DQ2" s="10"/>
+      <c r="DR2" s="10"/>
+      <c r="DS2" s="10"/>
+      <c r="DT2" s="10"/>
+      <c r="DU2" s="10"/>
+      <c r="DV2" s="10"/>
+      <c r="DW2" s="10"/>
+      <c r="DX2" s="10"/>
+      <c r="DY2" s="10"/>
+      <c r="DZ2" s="10"/>
     </row>
     <row r="3" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="10"/>
-      <c r="BI3" s="10"/>
-      <c r="BJ3" s="10"/>
-      <c r="BK3" s="10"/>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" s="10"/>
-      <c r="BO3" s="10"/>
-      <c r="BP3" s="10"/>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="10"/>
-      <c r="BT3" s="10"/>
-      <c r="BU3" s="10"/>
-      <c r="BV3" s="10"/>
-      <c r="BW3" s="10"/>
-      <c r="BX3" s="10"/>
-      <c r="BY3" s="10"/>
-      <c r="BZ3" s="10"/>
-      <c r="CA3" s="10"/>
-      <c r="CB3" s="10"/>
-      <c r="CC3" s="10"/>
-      <c r="CD3" s="10"/>
-      <c r="CE3" s="10"/>
-      <c r="CF3" s="10"/>
-      <c r="CG3" s="10"/>
-      <c r="CH3" s="10"/>
-      <c r="CI3" s="10"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
-      <c r="CL3" s="10"/>
-      <c r="CM3" s="10"/>
-      <c r="CN3" s="10"/>
-      <c r="CO3" s="10"/>
-      <c r="CP3" s="10"/>
-      <c r="CQ3" s="10"/>
-      <c r="CR3" s="10"/>
-      <c r="CS3" s="10"/>
-      <c r="CT3" s="10"/>
-      <c r="CU3" s="10"/>
-      <c r="CV3" s="10"/>
-      <c r="CW3" s="10"/>
-      <c r="CX3" s="10"/>
-      <c r="CY3" s="10"/>
-      <c r="CZ3" s="10"/>
-      <c r="DA3" s="10"/>
-      <c r="DB3" s="10"/>
-      <c r="DC3" s="10"/>
-      <c r="DD3" s="10"/>
-    </row>
-    <row r="4" spans="2:130" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="20"/>
+      <c r="CU3" s="20"/>
+      <c r="CV3" s="20"/>
+      <c r="CW3" s="20"/>
+      <c r="CX3" s="20"/>
+      <c r="CY3" s="20"/>
+      <c r="CZ3" s="20"/>
+      <c r="DA3" s="20"/>
+      <c r="DB3" s="20"/>
+      <c r="DC3" s="20"/>
+      <c r="DD3" s="20"/>
+    </row>
+    <row r="4" spans="2:130" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <f t="shared" ref="E4:BP4" si="0">D4+1</f>
         <v>3</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AI4" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AJ4" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AK4" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AL4" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AM4" s="19">
+      <c r="AM4" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AN4" s="19">
+      <c r="AN4" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AO4" s="19">
+      <c r="AO4" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AP4" s="19">
+      <c r="AP4" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AQ4" s="19">
+      <c r="AQ4" s="18">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="18">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="18">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="18">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="18">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BA4" s="19">
+      <c r="BA4" s="18">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BB4" s="19">
+      <c r="BB4" s="18">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BC4" s="19">
+      <c r="BC4" s="18">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BD4" s="19">
+      <c r="BD4" s="18">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BE4" s="19">
+      <c r="BE4" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BF4" s="19">
+      <c r="BF4" s="18">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BG4" s="19">
+      <c r="BG4" s="18">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BH4" s="19">
+      <c r="BH4" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BI4" s="19">
+      <c r="BI4" s="18">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BJ4" s="19">
+      <c r="BJ4" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BK4" s="19">
+      <c r="BK4" s="18">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BL4" s="19">
+      <c r="BL4" s="18">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BM4" s="19">
+      <c r="BM4" s="18">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BN4" s="19">
+      <c r="BN4" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BO4" s="19">
+      <c r="BO4" s="18">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BP4" s="19">
+      <c r="BP4" s="18">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BQ4" s="19">
-        <f t="shared" ref="BQ4:DD4" si="1">BP4+1</f>
+      <c r="BQ4" s="18">
+        <f t="shared" ref="BQ4:DC4" si="1">BP4+1</f>
         <v>67</v>
       </c>
-      <c r="BR4" s="19">
+      <c r="BR4" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BS4" s="19">
+      <c r="BS4" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BT4" s="19">
+      <c r="BT4" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BU4" s="19">
+      <c r="BU4" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BV4" s="19">
+      <c r="BV4" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BW4" s="19">
+      <c r="BW4" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BX4" s="19">
+      <c r="BX4" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BY4" s="19">
+      <c r="BY4" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BZ4" s="19">
+      <c r="BZ4" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="CA4" s="19">
+      <c r="CA4" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="CB4" s="19">
+      <c r="CB4" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CC4" s="19">
+      <c r="CC4" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CD4" s="19">
+      <c r="CD4" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CE4" s="19">
+      <c r="CE4" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CF4" s="19">
+      <c r="CF4" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CG4" s="19">
+      <c r="CG4" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="CH4" s="19">
+      <c r="CH4" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="CI4" s="19">
+      <c r="CI4" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="CJ4" s="19">
+      <c r="CJ4" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="CK4" s="19">
+      <c r="CK4" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CL4" s="19">
+      <c r="CL4" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CM4" s="19">
+      <c r="CM4" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CN4" s="19">
+      <c r="CN4" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CO4" s="19">
+      <c r="CO4" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CP4" s="19">
+      <c r="CP4" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CQ4" s="19">
+      <c r="CQ4" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CR4" s="19">
+      <c r="CR4" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CS4" s="19">
+      <c r="CS4" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CT4" s="19">
+      <c r="CT4" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CU4" s="19">
+      <c r="CU4" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CV4" s="19">
+      <c r="CV4" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CW4" s="19">
+      <c r="CW4" s="18">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CX4" s="19">
+      <c r="CX4" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CY4" s="19">
+      <c r="CY4" s="18">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="CZ4" s="19">
+      <c r="CZ4" s="18">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="DA4" s="19">
+      <c r="DA4" s="18">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="DB4" s="19">
+      <c r="DB4" s="18">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DC4" s="19">
+      <c r="DC4" s="18">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="9"/>
@@ -1208,7 +1212,7 @@
       <c r="DC5" s="8"/>
     </row>
     <row r="6" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
@@ -1216,7 +1220,7 @@
       <c r="DC6" s="8"/>
     </row>
     <row r="7" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <f t="shared" ref="B7:B24" si="2">B6+1</f>
         <v>3</v>
       </c>
@@ -1224,31 +1228,31 @@
       <c r="DC7" s="8"/>
     </row>
     <row r="8" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="DC8" s="8"/>
     </row>
     <row r="9" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="DC9" s="8"/>
     </row>
     <row r="10" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1265,7 +1269,7 @@
       <c r="DC10" s="8"/>
     </row>
     <row r="11" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1285,7 +1289,7 @@
       <c r="DC11" s="8"/>
     </row>
     <row r="12" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1294,13 +1298,13 @@
       <c r="DC12" s="8"/>
     </row>
     <row r="13" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C13" s="9"/>
       <c r="AC13" s="3"/>
-      <c r="AS13" s="18"/>
+      <c r="AS13" s="17"/>
       <c r="AV13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="BH13" s="4"/>
@@ -1312,7 +1316,7 @@
       <c r="DC13" s="8"/>
     </row>
     <row r="14" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1341,35 +1345,35 @@
       <c r="DC14" s="8"/>
     </row>
     <row r="15" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C15" s="9"/>
       <c r="G15" s="7"/>
       <c r="DC15" s="8"/>
-      <c r="DE15" s="16"/>
-      <c r="DF15" s="16"/>
-      <c r="DG15" s="16"/>
-      <c r="DH15" s="16"/>
-      <c r="DI15" s="16"/>
-      <c r="DJ15" s="16"/>
-      <c r="DK15" s="16"/>
-      <c r="DL15" s="16"/>
-      <c r="DM15" s="16"/>
-      <c r="DN15" s="16"/>
-      <c r="DO15" s="16"/>
-      <c r="DP15" s="16"/>
-      <c r="DQ15" s="16"/>
-      <c r="DR15" s="16"/>
-      <c r="DS15" s="16"/>
-      <c r="DT15" s="16"/>
-      <c r="DU15" s="16"/>
-      <c r="DV15" s="16"/>
-      <c r="DW15" s="16"/>
+      <c r="DE15" s="15"/>
+      <c r="DF15" s="15"/>
+      <c r="DG15" s="15"/>
+      <c r="DH15" s="15"/>
+      <c r="DI15" s="15"/>
+      <c r="DJ15" s="15"/>
+      <c r="DK15" s="15"/>
+      <c r="DL15" s="15"/>
+      <c r="DM15" s="15"/>
+      <c r="DN15" s="15"/>
+      <c r="DO15" s="15"/>
+      <c r="DP15" s="15"/>
+      <c r="DQ15" s="15"/>
+      <c r="DR15" s="15"/>
+      <c r="DS15" s="15"/>
+      <c r="DT15" s="15"/>
+      <c r="DU15" s="15"/>
+      <c r="DV15" s="15"/>
+      <c r="DW15" s="15"/>
     </row>
     <row r="16" spans="2:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1426,29 +1430,29 @@
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="13"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="12"/>
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="14"/>
-      <c r="BS16" s="14"/>
-      <c r="BT16" s="14"/>
-      <c r="BU16" s="14"/>
-      <c r="BV16" s="14"/>
-      <c r="BW16" s="16"/>
-      <c r="BX16" s="16"/>
-      <c r="BY16" s="16"/>
-      <c r="BZ16" s="16"/>
-      <c r="CA16" s="16"/>
-      <c r="CB16" s="15"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
+      <c r="BV16" s="13"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="14"/>
       <c r="CC16" s="6"/>
       <c r="CD16" s="6"/>
       <c r="CE16" s="6"/>
@@ -1474,93 +1478,1767 @@
       <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
       <c r="DC16" s="8"/>
-      <c r="DE16" s="16"/>
-      <c r="DF16" s="16"/>
-      <c r="DG16" s="16"/>
-      <c r="DH16" s="16"/>
-      <c r="DI16" s="16"/>
-      <c r="DJ16" s="16"/>
-      <c r="DK16" s="16"/>
-      <c r="DL16" s="16"/>
-      <c r="DM16" s="16"/>
-      <c r="DN16" s="16"/>
-      <c r="DO16" s="16"/>
-      <c r="DP16" s="16"/>
-      <c r="DQ16" s="16"/>
-      <c r="DR16" s="16"/>
-      <c r="DS16" s="16"/>
-      <c r="DT16" s="16"/>
-      <c r="DU16" s="16"/>
-      <c r="DV16" s="16"/>
-      <c r="DW16" s="16"/>
-    </row>
-    <row r="17" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+      <c r="DE16" s="15"/>
+      <c r="DF16" s="15"/>
+      <c r="DG16" s="15"/>
+      <c r="DH16" s="15"/>
+      <c r="DI16" s="15"/>
+      <c r="DJ16" s="15"/>
+      <c r="DK16" s="15"/>
+      <c r="DL16" s="15"/>
+      <c r="DM16" s="15"/>
+      <c r="DN16" s="15"/>
+      <c r="DO16" s="15"/>
+      <c r="DP16" s="15"/>
+      <c r="DQ16" s="15"/>
+      <c r="DR16" s="15"/>
+      <c r="DS16" s="15"/>
+      <c r="DT16" s="15"/>
+      <c r="DU16" s="15"/>
+      <c r="DV16" s="15"/>
+      <c r="DW16" s="15"/>
+    </row>
+    <row r="17" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C17" s="9"/>
       <c r="DC17" s="8"/>
     </row>
-    <row r="18" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+    <row r="18" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C18" s="9"/>
       <c r="DC18" s="8"/>
     </row>
-    <row r="19" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+    <row r="19" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C19" s="9"/>
       <c r="DC19" s="8"/>
     </row>
-    <row r="20" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+    <row r="20" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="DC20" s="8"/>
-    </row>
-    <row r="21" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+    </row>
+    <row r="21" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="DC21" s="8"/>
-    </row>
-    <row r="22" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+    </row>
+    <row r="22" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="DC22" s="8"/>
-    </row>
-    <row r="23" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+    </row>
+    <row r="23" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="DC23" s="8"/>
-    </row>
-    <row r="24" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+    </row>
+    <row r="24" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="DC24" s="8"/>
+    </row>
+    <row r="26" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="20"/>
+      <c r="CJ26" s="20"/>
+      <c r="CK26" s="20"/>
+      <c r="CL26" s="20"/>
+      <c r="CM26" s="20"/>
+      <c r="CN26" s="20"/>
+      <c r="CO26" s="20"/>
+      <c r="CP26" s="20"/>
+      <c r="CQ26" s="20"/>
+      <c r="CR26" s="20"/>
+      <c r="CS26" s="20"/>
+      <c r="CT26" s="20"/>
+      <c r="CU26" s="20"/>
+      <c r="CV26" s="20"/>
+      <c r="CW26" s="20"/>
+      <c r="CX26" s="20"/>
+      <c r="CY26" s="20"/>
+      <c r="CZ26" s="20"/>
+      <c r="DA26" s="20"/>
+      <c r="DB26" s="20"/>
+      <c r="DC26" s="20"/>
+      <c r="DD26" s="20"/>
+    </row>
+    <row r="27" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="20"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="20"/>
+      <c r="CH27" s="20"/>
+      <c r="CI27" s="20"/>
+      <c r="CJ27" s="20"/>
+      <c r="CK27" s="20"/>
+      <c r="CL27" s="20"/>
+      <c r="CM27" s="20"/>
+      <c r="CN27" s="20"/>
+      <c r="CO27" s="20"/>
+      <c r="CP27" s="20"/>
+      <c r="CQ27" s="20"/>
+      <c r="CR27" s="20"/>
+      <c r="CS27" s="20"/>
+      <c r="CT27" s="20"/>
+      <c r="CU27" s="20"/>
+      <c r="CV27" s="20"/>
+      <c r="CW27" s="20"/>
+      <c r="CX27" s="20"/>
+      <c r="CY27" s="20"/>
+      <c r="CZ27" s="20"/>
+      <c r="DA27" s="20"/>
+      <c r="DB27" s="20"/>
+      <c r="DC27" s="20"/>
+      <c r="DD27" s="20"/>
+    </row>
+    <row r="28" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <f>C28+1</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" ref="E28" si="3">D28+1</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" ref="F28" si="4">E28+1</f>
+        <v>4</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28" si="5">F28+1</f>
+        <v>5</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" ref="H28" si="6">G28+1</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" ref="I28" si="7">H28+1</f>
+        <v>7</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" ref="J28" si="8">I28+1</f>
+        <v>8</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" ref="K28" si="9">J28+1</f>
+        <v>9</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" ref="L28" si="10">K28+1</f>
+        <v>10</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" ref="M28" si="11">L28+1</f>
+        <v>11</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" ref="N28" si="12">M28+1</f>
+        <v>12</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" ref="O28" si="13">N28+1</f>
+        <v>13</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" ref="P28" si="14">O28+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" ref="Q28" si="15">P28+1</f>
+        <v>15</v>
+      </c>
+      <c r="R28" s="18">
+        <f t="shared" ref="R28" si="16">Q28+1</f>
+        <v>16</v>
+      </c>
+      <c r="S28" s="18">
+        <f t="shared" ref="S28" si="17">R28+1</f>
+        <v>17</v>
+      </c>
+      <c r="T28" s="18">
+        <f t="shared" ref="T28" si="18">S28+1</f>
+        <v>18</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" ref="U28" si="19">T28+1</f>
+        <v>19</v>
+      </c>
+      <c r="V28" s="18">
+        <f t="shared" ref="V28" si="20">U28+1</f>
+        <v>20</v>
+      </c>
+      <c r="W28" s="18">
+        <f t="shared" ref="W28" si="21">V28+1</f>
+        <v>21</v>
+      </c>
+      <c r="X28" s="18">
+        <f t="shared" ref="X28" si="22">W28+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y28" s="18">
+        <f t="shared" ref="Y28" si="23">X28+1</f>
+        <v>23</v>
+      </c>
+      <c r="Z28" s="18">
+        <f t="shared" ref="Z28" si="24">Y28+1</f>
+        <v>24</v>
+      </c>
+      <c r="AA28" s="18">
+        <f t="shared" ref="AA28" si="25">Z28+1</f>
+        <v>25</v>
+      </c>
+      <c r="AB28" s="18">
+        <f t="shared" ref="AB28" si="26">AA28+1</f>
+        <v>26</v>
+      </c>
+      <c r="AC28" s="18">
+        <f t="shared" ref="AC28" si="27">AB28+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD28" s="18">
+        <f t="shared" ref="AD28" si="28">AC28+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE28" s="18">
+        <f t="shared" ref="AE28" si="29">AD28+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF28" s="18">
+        <f t="shared" ref="AF28" si="30">AE28+1</f>
+        <v>30</v>
+      </c>
+      <c r="AG28" s="18">
+        <f t="shared" ref="AG28" si="31">AF28+1</f>
+        <v>31</v>
+      </c>
+      <c r="AH28" s="18">
+        <f t="shared" ref="AH28" si="32">AG28+1</f>
+        <v>32</v>
+      </c>
+      <c r="AI28" s="18">
+        <f t="shared" ref="AI28" si="33">AH28+1</f>
+        <v>33</v>
+      </c>
+      <c r="AJ28" s="18">
+        <f t="shared" ref="AJ28" si="34">AI28+1</f>
+        <v>34</v>
+      </c>
+      <c r="AK28" s="18">
+        <f t="shared" ref="AK28" si="35">AJ28+1</f>
+        <v>35</v>
+      </c>
+      <c r="AL28" s="18">
+        <f t="shared" ref="AL28" si="36">AK28+1</f>
+        <v>36</v>
+      </c>
+      <c r="AM28" s="18">
+        <f t="shared" ref="AM28" si="37">AL28+1</f>
+        <v>37</v>
+      </c>
+      <c r="AN28" s="18">
+        <f t="shared" ref="AN28" si="38">AM28+1</f>
+        <v>38</v>
+      </c>
+      <c r="AO28" s="18">
+        <f t="shared" ref="AO28" si="39">AN28+1</f>
+        <v>39</v>
+      </c>
+      <c r="AP28" s="18">
+        <f t="shared" ref="AP28" si="40">AO28+1</f>
+        <v>40</v>
+      </c>
+      <c r="AQ28" s="18">
+        <f t="shared" ref="AQ28" si="41">AP28+1</f>
+        <v>41</v>
+      </c>
+      <c r="AR28" s="18">
+        <f t="shared" ref="AR28" si="42">AQ28+1</f>
+        <v>42</v>
+      </c>
+      <c r="AS28" s="18">
+        <f t="shared" ref="AS28" si="43">AR28+1</f>
+        <v>43</v>
+      </c>
+      <c r="AT28" s="18">
+        <f t="shared" ref="AT28" si="44">AS28+1</f>
+        <v>44</v>
+      </c>
+      <c r="AU28" s="18">
+        <f t="shared" ref="AU28" si="45">AT28+1</f>
+        <v>45</v>
+      </c>
+      <c r="AV28" s="18">
+        <f t="shared" ref="AV28" si="46">AU28+1</f>
+        <v>46</v>
+      </c>
+      <c r="AW28" s="18">
+        <f t="shared" ref="AW28" si="47">AV28+1</f>
+        <v>47</v>
+      </c>
+      <c r="AX28" s="18">
+        <f t="shared" ref="AX28" si="48">AW28+1</f>
+        <v>48</v>
+      </c>
+      <c r="AY28" s="18">
+        <f t="shared" ref="AY28" si="49">AX28+1</f>
+        <v>49</v>
+      </c>
+      <c r="AZ28" s="18">
+        <f t="shared" ref="AZ28" si="50">AY28+1</f>
+        <v>50</v>
+      </c>
+      <c r="BA28" s="18">
+        <f t="shared" ref="BA28" si="51">AZ28+1</f>
+        <v>51</v>
+      </c>
+      <c r="BB28" s="18">
+        <f t="shared" ref="BB28" si="52">BA28+1</f>
+        <v>52</v>
+      </c>
+      <c r="BC28" s="18">
+        <f t="shared" ref="BC28" si="53">BB28+1</f>
+        <v>53</v>
+      </c>
+      <c r="BD28" s="18">
+        <f t="shared" ref="BD28" si="54">BC28+1</f>
+        <v>54</v>
+      </c>
+      <c r="BE28" s="18">
+        <f t="shared" ref="BE28" si="55">BD28+1</f>
+        <v>55</v>
+      </c>
+      <c r="BF28" s="18">
+        <f t="shared" ref="BF28" si="56">BE28+1</f>
+        <v>56</v>
+      </c>
+      <c r="BG28" s="18">
+        <f t="shared" ref="BG28" si="57">BF28+1</f>
+        <v>57</v>
+      </c>
+      <c r="BH28" s="18">
+        <f t="shared" ref="BH28" si="58">BG28+1</f>
+        <v>58</v>
+      </c>
+      <c r="BI28" s="18">
+        <f t="shared" ref="BI28" si="59">BH28+1</f>
+        <v>59</v>
+      </c>
+      <c r="BJ28" s="18">
+        <f t="shared" ref="BJ28" si="60">BI28+1</f>
+        <v>60</v>
+      </c>
+      <c r="BK28" s="18">
+        <f t="shared" ref="BK28" si="61">BJ28+1</f>
+        <v>61</v>
+      </c>
+      <c r="BL28" s="18">
+        <f t="shared" ref="BL28" si="62">BK28+1</f>
+        <v>62</v>
+      </c>
+      <c r="BM28" s="18">
+        <f t="shared" ref="BM28" si="63">BL28+1</f>
+        <v>63</v>
+      </c>
+      <c r="BN28" s="18">
+        <f t="shared" ref="BN28" si="64">BM28+1</f>
+        <v>64</v>
+      </c>
+      <c r="BO28" s="18">
+        <f t="shared" ref="BO28" si="65">BN28+1</f>
+        <v>65</v>
+      </c>
+      <c r="BP28" s="18">
+        <f t="shared" ref="BP28" si="66">BO28+1</f>
+        <v>66</v>
+      </c>
+      <c r="BQ28" s="18">
+        <f t="shared" ref="BQ28" si="67">BP28+1</f>
+        <v>67</v>
+      </c>
+      <c r="BR28" s="18">
+        <f t="shared" ref="BR28" si="68">BQ28+1</f>
+        <v>68</v>
+      </c>
+      <c r="BS28" s="18">
+        <f t="shared" ref="BS28" si="69">BR28+1</f>
+        <v>69</v>
+      </c>
+      <c r="BT28" s="18">
+        <f t="shared" ref="BT28" si="70">BS28+1</f>
+        <v>70</v>
+      </c>
+      <c r="BU28" s="18">
+        <f t="shared" ref="BU28" si="71">BT28+1</f>
+        <v>71</v>
+      </c>
+      <c r="BV28" s="18">
+        <f t="shared" ref="BV28" si="72">BU28+1</f>
+        <v>72</v>
+      </c>
+      <c r="BW28" s="18">
+        <f t="shared" ref="BW28" si="73">BV28+1</f>
+        <v>73</v>
+      </c>
+      <c r="BX28" s="18">
+        <f t="shared" ref="BX28" si="74">BW28+1</f>
+        <v>74</v>
+      </c>
+      <c r="BY28" s="18">
+        <f t="shared" ref="BY28" si="75">BX28+1</f>
+        <v>75</v>
+      </c>
+      <c r="BZ28" s="18">
+        <f t="shared" ref="BZ28" si="76">BY28+1</f>
+        <v>76</v>
+      </c>
+      <c r="CA28" s="18">
+        <f t="shared" ref="CA28" si="77">BZ28+1</f>
+        <v>77</v>
+      </c>
+      <c r="CB28" s="18">
+        <f t="shared" ref="CB28" si="78">CA28+1</f>
+        <v>78</v>
+      </c>
+      <c r="CC28" s="18">
+        <f t="shared" ref="CC28" si="79">CB28+1</f>
+        <v>79</v>
+      </c>
+      <c r="CD28" s="18">
+        <f t="shared" ref="CD28" si="80">CC28+1</f>
+        <v>80</v>
+      </c>
+      <c r="CE28" s="18">
+        <f t="shared" ref="CE28" si="81">CD28+1</f>
+        <v>81</v>
+      </c>
+      <c r="CF28" s="18">
+        <f t="shared" ref="CF28" si="82">CE28+1</f>
+        <v>82</v>
+      </c>
+      <c r="CG28" s="18">
+        <f t="shared" ref="CG28" si="83">CF28+1</f>
+        <v>83</v>
+      </c>
+      <c r="CH28" s="18">
+        <f t="shared" ref="CH28" si="84">CG28+1</f>
+        <v>84</v>
+      </c>
+      <c r="CI28" s="18">
+        <f t="shared" ref="CI28" si="85">CH28+1</f>
+        <v>85</v>
+      </c>
+      <c r="CJ28" s="18">
+        <f t="shared" ref="CJ28" si="86">CI28+1</f>
+        <v>86</v>
+      </c>
+      <c r="CK28" s="18">
+        <f t="shared" ref="CK28" si="87">CJ28+1</f>
+        <v>87</v>
+      </c>
+      <c r="CL28" s="18">
+        <f t="shared" ref="CL28" si="88">CK28+1</f>
+        <v>88</v>
+      </c>
+      <c r="CM28" s="18">
+        <f t="shared" ref="CM28" si="89">CL28+1</f>
+        <v>89</v>
+      </c>
+      <c r="CN28" s="18">
+        <f t="shared" ref="CN28" si="90">CM28+1</f>
+        <v>90</v>
+      </c>
+      <c r="CO28" s="18">
+        <f t="shared" ref="CO28" si="91">CN28+1</f>
+        <v>91</v>
+      </c>
+      <c r="CP28" s="18">
+        <f t="shared" ref="CP28" si="92">CO28+1</f>
+        <v>92</v>
+      </c>
+      <c r="CQ28" s="18">
+        <f t="shared" ref="CQ28" si="93">CP28+1</f>
+        <v>93</v>
+      </c>
+      <c r="CR28" s="18">
+        <f t="shared" ref="CR28" si="94">CQ28+1</f>
+        <v>94</v>
+      </c>
+      <c r="CS28" s="18">
+        <f t="shared" ref="CS28" si="95">CR28+1</f>
+        <v>95</v>
+      </c>
+      <c r="CT28" s="18">
+        <f t="shared" ref="CT28" si="96">CS28+1</f>
+        <v>96</v>
+      </c>
+      <c r="CU28" s="18">
+        <f t="shared" ref="CU28" si="97">CT28+1</f>
+        <v>97</v>
+      </c>
+      <c r="CV28" s="18">
+        <f t="shared" ref="CV28" si="98">CU28+1</f>
+        <v>98</v>
+      </c>
+      <c r="CW28" s="18">
+        <f t="shared" ref="CW28" si="99">CV28+1</f>
+        <v>99</v>
+      </c>
+      <c r="CX28" s="18">
+        <f t="shared" ref="CX28" si="100">CW28+1</f>
+        <v>100</v>
+      </c>
+      <c r="CY28" s="18">
+        <f t="shared" ref="CY28" si="101">CX28+1</f>
+        <v>101</v>
+      </c>
+      <c r="CZ28" s="18">
+        <f t="shared" ref="CZ28" si="102">CY28+1</f>
+        <v>102</v>
+      </c>
+      <c r="DA28" s="18">
+        <f t="shared" ref="DA28" si="103">CZ28+1</f>
+        <v>103</v>
+      </c>
+      <c r="DB28" s="18">
+        <f t="shared" ref="DB28" si="104">DA28+1</f>
+        <v>104</v>
+      </c>
+      <c r="DC28" s="18">
+        <f t="shared" ref="DC28" si="105">DB28+1</f>
+        <v>105</v>
+      </c>
+      <c r="DD28" s="18"/>
+    </row>
+    <row r="29" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="DC29" s="8"/>
+    </row>
+    <row r="30" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <f>B29+1</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="DC30" s="8"/>
+    </row>
+    <row r="31" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
+        <f t="shared" ref="B31:B48" si="106">B30+1</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="15"/>
+      <c r="CG31" s="15"/>
+      <c r="CH31" s="15"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="15"/>
+      <c r="CP31" s="15"/>
+      <c r="CQ31" s="15"/>
+      <c r="CR31" s="15"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15"/>
+      <c r="CW31" s="15"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="15"/>
+      <c r="CZ31" s="15"/>
+      <c r="DA31" s="15"/>
+      <c r="DC31" s="8"/>
+    </row>
+    <row r="32" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="15"/>
+      <c r="CG32" s="15"/>
+      <c r="CH32" s="15"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="15"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CV32" s="15"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DC32" s="8"/>
+    </row>
+    <row r="33" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
+        <f t="shared" si="106"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="15"/>
+      <c r="BX33" s="15"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="15"/>
+      <c r="CA33" s="15"/>
+      <c r="CB33" s="15"/>
+      <c r="CC33" s="15"/>
+      <c r="CD33" s="15"/>
+      <c r="CE33" s="15"/>
+      <c r="CF33" s="15"/>
+      <c r="CG33" s="15"/>
+      <c r="CH33" s="15"/>
+      <c r="CI33" s="15"/>
+      <c r="CJ33" s="15"/>
+      <c r="CK33" s="15"/>
+      <c r="CL33" s="15"/>
+      <c r="CM33" s="15"/>
+      <c r="CN33" s="15"/>
+      <c r="CO33" s="15"/>
+      <c r="CP33" s="15"/>
+      <c r="CQ33" s="15"/>
+      <c r="CR33" s="15"/>
+      <c r="CS33" s="15"/>
+      <c r="CT33" s="15"/>
+      <c r="CU33" s="15"/>
+      <c r="CV33" s="15"/>
+      <c r="CW33" s="15"/>
+      <c r="CX33" s="15"/>
+      <c r="CY33" s="15"/>
+      <c r="CZ33" s="15"/>
+      <c r="DA33" s="15"/>
+      <c r="DC33" s="8"/>
+    </row>
+    <row r="34" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <f t="shared" si="106"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="15"/>
+      <c r="BW34" s="15"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="15"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="15"/>
+      <c r="CQ34" s="15"/>
+      <c r="CR34" s="15"/>
+      <c r="CS34" s="15"/>
+      <c r="CT34" s="15"/>
+      <c r="CU34" s="15"/>
+      <c r="CV34" s="15"/>
+      <c r="CW34" s="15"/>
+      <c r="CX34" s="15"/>
+      <c r="CY34" s="15"/>
+      <c r="CZ34" s="15"/>
+      <c r="DA34" s="15"/>
+      <c r="DC34" s="8"/>
+    </row>
+    <row r="35" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
+        <f t="shared" si="106"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="15"/>
+      <c r="BS35" s="15"/>
+      <c r="BT35" s="15"/>
+      <c r="BU35" s="15"/>
+      <c r="BV35" s="15"/>
+      <c r="BW35" s="15"/>
+      <c r="BX35" s="15"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="15"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="15"/>
+      <c r="CF35" s="15"/>
+      <c r="CG35" s="15"/>
+      <c r="CH35" s="15"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="15"/>
+      <c r="CK35" s="15"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
+      <c r="CN35" s="15"/>
+      <c r="CO35" s="15"/>
+      <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
+      <c r="CR35" s="15"/>
+      <c r="CS35" s="15"/>
+      <c r="CT35" s="15"/>
+      <c r="CU35" s="15"/>
+      <c r="CV35" s="15"/>
+      <c r="CW35" s="15"/>
+      <c r="CX35" s="15"/>
+      <c r="CY35" s="15"/>
+      <c r="CZ35" s="15"/>
+      <c r="DA35" s="15"/>
+      <c r="DC35" s="8"/>
+    </row>
+    <row r="36" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19">
+        <f t="shared" si="106"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="15"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="15"/>
+      <c r="CG36" s="15"/>
+      <c r="CH36" s="15"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="15"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="15"/>
+      <c r="CM36" s="15"/>
+      <c r="CN36" s="15"/>
+      <c r="CO36" s="15"/>
+      <c r="CP36" s="15"/>
+      <c r="CQ36" s="15"/>
+      <c r="CR36" s="15"/>
+      <c r="CS36" s="15"/>
+      <c r="CT36" s="15"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="15"/>
+      <c r="CW36" s="15"/>
+      <c r="CX36" s="15"/>
+      <c r="CY36" s="15"/>
+      <c r="CZ36" s="15"/>
+      <c r="DA36" s="15"/>
+      <c r="DC36" s="8"/>
+    </row>
+    <row r="37" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
+        <f t="shared" si="106"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="15"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="15"/>
+      <c r="BV37" s="15"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="15"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="15"/>
+      <c r="CG37" s="15"/>
+      <c r="CH37" s="15"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="15"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
+      <c r="CN37" s="15"/>
+      <c r="CO37" s="15"/>
+      <c r="CP37" s="15"/>
+      <c r="CQ37" s="15"/>
+      <c r="CR37" s="15"/>
+      <c r="CS37" s="15"/>
+      <c r="CT37" s="15"/>
+      <c r="CU37" s="15"/>
+      <c r="CV37" s="15"/>
+      <c r="CW37" s="15"/>
+      <c r="CX37" s="15"/>
+      <c r="CY37" s="15"/>
+      <c r="CZ37" s="15"/>
+      <c r="DA37" s="15"/>
+      <c r="DC37" s="8"/>
+    </row>
+    <row r="38" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
+        <f t="shared" si="106"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="15"/>
+      <c r="BV38" s="15"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="15"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="15"/>
+      <c r="CA38" s="15"/>
+      <c r="CB38" s="15"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="15"/>
+      <c r="CF38" s="15"/>
+      <c r="CG38" s="15"/>
+      <c r="CH38" s="15"/>
+      <c r="CI38" s="15"/>
+      <c r="CJ38" s="15"/>
+      <c r="CK38" s="15"/>
+      <c r="CL38" s="15"/>
+      <c r="CM38" s="15"/>
+      <c r="CN38" s="15"/>
+      <c r="CO38" s="15"/>
+      <c r="CP38" s="15"/>
+      <c r="CQ38" s="15"/>
+      <c r="CR38" s="15"/>
+      <c r="CS38" s="15"/>
+      <c r="CT38" s="15"/>
+      <c r="CU38" s="15"/>
+      <c r="CV38" s="15"/>
+      <c r="CW38" s="15"/>
+      <c r="CX38" s="15"/>
+      <c r="CY38" s="15"/>
+      <c r="CZ38" s="15"/>
+      <c r="DA38" s="15"/>
+      <c r="DC38" s="8"/>
+    </row>
+    <row r="39" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19">
+        <f t="shared" si="106"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="G39" s="7"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="15"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="15"/>
+      <c r="BV39" s="15"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="15"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="15"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="15"/>
+      <c r="CG39" s="15"/>
+      <c r="CH39" s="15"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="15"/>
+      <c r="CK39" s="15"/>
+      <c r="CL39" s="15"/>
+      <c r="CM39" s="15"/>
+      <c r="CN39" s="15"/>
+      <c r="CO39" s="15"/>
+      <c r="CP39" s="15"/>
+      <c r="CQ39" s="15"/>
+      <c r="CR39" s="15"/>
+      <c r="CS39" s="15"/>
+      <c r="CT39" s="15"/>
+      <c r="CU39" s="15"/>
+      <c r="CV39" s="15"/>
+      <c r="CW39" s="15"/>
+      <c r="CX39" s="15"/>
+      <c r="CY39" s="15"/>
+      <c r="CZ39" s="15"/>
+      <c r="DA39" s="15"/>
+      <c r="DC39" s="8"/>
+    </row>
+    <row r="40" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19">
+        <f t="shared" si="106"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="13"/>
+      <c r="BE40" s="13"/>
+      <c r="BF40" s="13"/>
+      <c r="BG40" s="13"/>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="13"/>
+      <c r="BJ40" s="13"/>
+      <c r="BK40" s="13"/>
+      <c r="BL40" s="13"/>
+      <c r="BM40" s="13"/>
+      <c r="BN40" s="13"/>
+      <c r="BO40" s="13"/>
+      <c r="BP40" s="13"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="13"/>
+      <c r="BS40" s="13"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="15"/>
+      <c r="CG40" s="15"/>
+      <c r="CH40" s="15"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="15"/>
+      <c r="CP40" s="15"/>
+      <c r="CQ40" s="15"/>
+      <c r="CR40" s="15"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="15"/>
+      <c r="CU40" s="15"/>
+      <c r="CV40" s="15"/>
+      <c r="CW40" s="15"/>
+      <c r="CX40" s="13"/>
+      <c r="CY40" s="13"/>
+      <c r="CZ40" s="13"/>
+      <c r="DA40" s="15"/>
+      <c r="DC40" s="8"/>
+    </row>
+    <row r="41" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
+        <f t="shared" si="106"/>
+        <v>13</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
+        <f t="shared" si="106"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <f t="shared" si="106"/>
+        <v>15</v>
+      </c>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <f t="shared" si="106"/>
+        <v>16</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <f t="shared" si="106"/>
+        <v>17</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
+        <f t="shared" si="106"/>
+        <v>18</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
+        <f t="shared" si="106"/>
+        <v>19</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="2:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
+        <f t="shared" si="106"/>
+        <v>20</v>
+      </c>
+      <c r="C48" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:DD3"/>
+    <mergeCell ref="C26:DD27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
